--- a/list.xlsx
+++ b/list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -583,13 +583,61 @@
       </rPr>
       <t> </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>MKV58F1M0VLL24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF252526"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MKV44F128VLF16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF252526"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MKS22FN256VFT12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF252526"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>qfn48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,6 +657,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF646464"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF252526"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -931,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1274,10 +1329,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -1285,10 +1340,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -1296,10 +1351,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -1307,10 +1362,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -1318,10 +1373,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1329,10 +1384,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1340,10 +1395,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1351,10 +1406,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1362,19 +1417,52 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B42" t="s">
         <v>31</v>
       </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="C40">
-        <f>SUM(C2:C39)</f>
-        <v>195</v>
+      <c r="C42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="C43">
+        <f>SUM(C2:C42)</f>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
